--- a/quiz/file/example.xlsx
+++ b/quiz/file/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minlab/wwwroot/quiz/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D73CD8-A13D-214A-8023-B6D821806F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA55485-CF36-7348-A1C0-069A84963C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="24420" windowHeight="13960" xr2:uid="{AF9000D9-3905-E648-A025-5011FB845A4D}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>題目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,7 +41,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他選項</t>
+    <t>一般試題/歷屆試題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難易度(難/中/易)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案(為選項之一)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,38 +426,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6683A22B-A747-C34D-90CE-89C3ED46FF9B}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -460,19 +479,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC1EE1-95BC-DC43-8264-6852F8AE3F02}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -484,17 +513,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6421AE2E-7812-0745-A06F-39E7DB2193C5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
